--- a/Analysis/AticAtac/Data/KeyLocationTable.xlsx
+++ b/Analysis/AticAtac/Data/KeyLocationTable.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IC514955\Documents\My Developments\FractalStudios\AticAtac\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IC514955\Documents\My Developments\FractalStudios\GitHub\ZxSpectrum\Analysis\AticAtac\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FA60F-7F87-4E62-B748-E43A35991B85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextFile1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,25 +609,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,11 +979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,24 +1002,24 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1037,17 +1042,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>81</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G4">
@@ -1060,17 +1065,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>85</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G5">
@@ -1083,17 +1088,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6">
@@ -1106,17 +1111,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>69</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>71</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G7">
@@ -1129,17 +1134,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>67</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>85</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G8">
@@ -1152,17 +1157,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G9">
@@ -1175,17 +1180,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>73</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G10">
@@ -1198,17 +1203,17 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G11">
@@ -1221,24 +1226,24 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1266,25 +1271,23 @@
       <c r="J14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="5">
-        <v>53</v>
-      </c>
-      <c r="M14">
-        <f>HEX2DEC(L14)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3">
+        <v>53</v>
+      </c>
       <c r="G15">
         <f>HEX2DEC(B15)</f>
         <v>23</v>
@@ -1293,53 +1296,55 @@
         <f>HEX2DEC(C15)</f>
         <v>5</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="L15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15">
-        <f>HEX2DEC(L15)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f>HEX2DEC(D15)</f>
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <f>HEX2DEC(E15)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>6</v>
       </c>
       <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G16">
-        <f t="shared" ref="G16:J26" si="0">HEX2DEC(B16)</f>
+        <f t="shared" ref="G16:J22" si="0">HEX2DEC(B16)</f>
         <v>19</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="L16" s="5">
-        <v>41</v>
-      </c>
-      <c r="M16">
-        <f>HEX2DEC(L16)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>7</v>
       </c>
+      <c r="E17" s="3">
+        <v>41</v>
+      </c>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1348,24 +1353,24 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L17" s="5">
-        <v>94</v>
-      </c>
-      <c r="M17">
-        <f>HEX2DEC(L17)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E18" s="3">
+        <v>94</v>
+      </c>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1374,24 +1379,24 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18">
-        <f>HEX2DEC(L18)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>25</v>
       </c>
+      <c r="E19" s="5">
+        <v>33</v>
+      </c>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>137</v>
@@ -1400,17 +1405,24 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>24</v>
       </c>
+      <c r="E20" s="5">
+        <v>91</v>
+      </c>
       <c r="G20">
         <f t="shared" si="0"/>
         <v>135</v>
@@ -1419,17 +1431,24 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>23</v>
       </c>
+      <c r="E21" s="5">
+        <v>39</v>
+      </c>
       <c r="G21">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -1438,17 +1457,24 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>22</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -1457,97 +1483,149 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>78</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="7">
-        <v>33</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="7">
-        <v>91</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="7">
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:H33" si="1">HEX2DEC(B26)</f>
+        <v>23</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1555,169 +1633,85 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
-        <f>HEX2DEC(B30)</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>137</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="2">
-        <f>HEX2DEC(B31)</f>
-        <v>19</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H32" s="2">
-        <f>HEX2DEC(B32)</f>
-        <v>9</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H33" s="2">
-        <f>HEX2DEC(B33)</f>
-        <v>13</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <f>HEX2DEC(B34)</f>
-        <v>137</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>55</v>
+      </c>
+      <c r="F34">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2">
+        <f>HEX2DEC(C34)</f>
+        <v>109</v>
+      </c>
+      <c r="J34" s="2">
+        <f>HEX2DEC(D34)</f>
+        <v>67</v>
+      </c>
+      <c r="K34" s="2">
+        <f>HEX2DEC(E34)</f>
+        <v>85</v>
+      </c>
+      <c r="L34" s="2">
+        <f>HEX2DEC(F34)</f>
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="2">
-        <f>HEX2DEC(B35)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="2">
-        <f>HEX2DEC(B36)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="2">
-        <f>HEX2DEC(B37)</f>
-        <v>133</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>43</v>
-      </c>
-      <c r="E38">
-        <v>55</v>
-      </c>
-      <c r="F38">
-        <v>56</v>
-      </c>
-      <c r="I38" s="2">
-        <f>HEX2DEC(C38)</f>
-        <v>109</v>
-      </c>
-      <c r="J38" s="2">
-        <f>HEX2DEC(D38)</f>
-        <v>67</v>
-      </c>
-      <c r="K38" s="2">
-        <f>HEX2DEC(E38)</f>
-        <v>85</v>
-      </c>
-      <c r="L38" s="2">
-        <f>HEX2DEC(F38)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1725,8 +1719,8 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
